--- a/Output/1988/North Carolina/North Carolina.xlsx
+++ b/Output/1988/North Carolina/North Carolina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="780">
   <si>
     <t>State</t>
   </si>
@@ -2740,9 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678DCFF0-D594-EC45-919D-4474A91D8575}">
   <dimension ref="A1:Z598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3450,7 +3448,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L10">
         <v>102</v>
@@ -5009,8 +5007,8 @@
       <c r="J31" t="s">
         <v>31</v>
       </c>
-      <c r="K31" t="s">
-        <v>31</v>
+      <c r="K31" s="1">
+        <v>7033</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
